--- a/Example/example.xlsx
+++ b/Example/example.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t xml:space="preserve">Abkürzungen</t>
   </si>
@@ -133,18 +133,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -165,6 +164,11 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -190,9 +194,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.2755102040816"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Example/example.xlsx
+++ b/Example/example.xlsx
@@ -11,17 +11,17 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t xml:space="preserve">Abkürzungen</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t xml:space="preserve">27.05. Tegel-Munich 1200-1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFA,DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,42 +139,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.530612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Example/example.xlsx
+++ b/Example/example.xlsx
@@ -35,10 +35,10 @@
     <t xml:space="preserve">27.05. Tegel-Munich 1200-1400</t>
   </si>
   <si>
-    <t xml:space="preserve">DFA,DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin</t>
+    <t xml:space="preserve">DFA, DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin, TXL</t>
   </si>
 </sst>
 </file>
@@ -144,12 +144,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.9234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Example/example.xlsx
+++ b/Example/example.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve">Abkürzungen</t>
   </si>
@@ -35,10 +35,13 @@
     <t xml:space="preserve">27.05. Tegel-Munich 1200-1400</t>
   </si>
   <si>
-    <t xml:space="preserve">DFA, DA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Berlin, TXL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFA, Düsseldorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADF</t>
   </si>
 </sst>
 </file>
@@ -139,17 +142,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -161,6 +164,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -174,17 +180,17 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Example/example.xlsx
+++ b/Example/example.xlsx
@@ -116,12 +116,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -145,17 +149,15 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.1530612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -164,7 +166,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
